--- a/occurrences_algo_detect_contor.xlsx
+++ b/occurrences_algo_detect_contor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/631fab7c83f2505c/Documentos/GitHub/Artificial_markers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B49E45EA-FBA0-4128-B606-30D27C424D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{B49E45EA-FBA0-4128-B606-30D27C424D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D6BFE6B-0730-4657-9A6C-047114AA64EA}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" xr2:uid="{43C6C8F2-ACF6-4F2E-9E18-918A7FC61CD8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43C6C8F2-ACF6-4F2E-9E18-918A7FC61CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="occurrences_algo_detect_contor" sheetId="1" r:id="rId1"/>
@@ -927,7 +927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FACA84-0035-41A2-A837-051D3FF5FC64}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -962,10 +964,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1014,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1066,10 +1068,10 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>11</v>
